--- a/real_robot_data_plots_and_demos/planning_time_avg_sd_computation.xlsx
+++ b/real_robot_data_plots_and_demos/planning_time_avg_sd_computation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janak\Documents\GitHub\closed_chain_affordance\real_robot_data_plots_and_demos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07980BD4-71D2-4933-8B57-665141C73CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FEDF17-CC7D-471C-B72E-7B37AE780635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{6D8DE224-60BC-449E-86CB-B821C26FFD48}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{6D8DE224-60BC-449E-86CB-B821C26FFD48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.E+00"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -150,24 +152,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -504,252 +512,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F32D5C6-BAB6-44F8-B85F-8DCB2130D1E0}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="J2" sqref="J2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="4" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>15375</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>15441</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>15598</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>15574</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>15424</v>
       </c>
-      <c r="H2" s="5" cm="1">
+      <c r="H2" s="3" cm="1">
         <f t="array" ref="H2">AVERAGE(C2:G2/B$10)</f>
         <v>1.5482399999999999E-2</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <f>_xlfn.STDEV.P(C2:G2)/B$10</f>
         <v>8.765067027695795E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>7527</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>7795</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>7706</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>7605</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>7752</v>
       </c>
-      <c r="H3" s="5" cm="1">
+      <c r="H3" s="3" cm="1">
         <f t="array" ref="H3">AVERAGE(C3:G3/B$10)</f>
         <v>7.6770000000000007E-3</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <f t="shared" ref="I3:I8" si="0">_xlfn.STDEV.P(C3:G3)/B$10</f>
         <v>9.8055086558525859E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>37475</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>37440</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>37150</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>37576</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>37913</v>
       </c>
-      <c r="H4" s="5" cm="1">
+      <c r="H4" s="3" cm="1">
         <f t="array" ref="H4">AVERAGE(C4:G4/B$10)</f>
         <v>3.7510800000000004E-2</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <f t="shared" si="0"/>
         <v>2.4596211090328527E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>97518</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>97546</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>97182</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>97622</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>97672</v>
       </c>
-      <c r="H5" s="5" cm="1">
+      <c r="H5" s="3" cm="1">
         <f t="array" ref="H5">AVERAGE(C5:G5/B$10)</f>
         <v>9.7507999999999997E-2</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <f t="shared" si="0"/>
         <v>1.7187902722554606E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>61541</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>62526</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>62560</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>62588</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>61897</v>
       </c>
-      <c r="H6" s="5" cm="1">
+      <c r="H6" s="3" cm="1">
         <f t="array" ref="H6">AVERAGE(C6:G6/B$10)</f>
         <v>6.2222399999999997E-2</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <f t="shared" si="0"/>
         <v>4.2661486143827669E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>86786</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>86712</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>85186</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>86677</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>85297</v>
       </c>
-      <c r="H7" s="5" cm="1">
+      <c r="H7" s="3" cm="1">
         <f t="array" ref="H7">AVERAGE(C7:G7/B$10)</f>
         <v>8.6131600000000003E-2</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4">
         <f t="shared" si="0"/>
         <v>7.2846155698156104E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4" t="s">
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>64395</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>63951</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>63906</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>65217</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>64102</v>
       </c>
-      <c r="H8" s="5" cm="1">
+      <c r="H8" s="3" cm="1">
         <f t="array" ref="H8">AVERAGE(C8:G8/B$10)</f>
         <v>6.4314199999999988E-2</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="4">
         <f t="shared" si="0"/>
         <v>4.827311467059071E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="J8" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>1000000</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
